--- a/Code/Results/Cases/Case_3_111/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_111/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9888354528144414</v>
+        <v>1.027637184202276</v>
       </c>
       <c r="D2">
-        <v>1.01129882622712</v>
+        <v>1.035249955163783</v>
       </c>
       <c r="E2">
-        <v>0.9966701035167085</v>
+        <v>1.027688866148185</v>
       </c>
       <c r="F2">
-        <v>1.011674581188816</v>
+        <v>1.043871701773545</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039271326183161</v>
+        <v>1.031462112632618</v>
       </c>
       <c r="J2">
-        <v>1.011355299731059</v>
+        <v>1.032793951103716</v>
       </c>
       <c r="K2">
-        <v>1.022602963121858</v>
+        <v>1.038047099433764</v>
       </c>
       <c r="L2">
-        <v>1.008176024854751</v>
+        <v>1.03050786416438</v>
       </c>
       <c r="M2">
-        <v>1.022973631724686</v>
+        <v>1.046644346015466</v>
       </c>
       <c r="N2">
-        <v>1.007367333895267</v>
+        <v>1.014879934026104</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.994339754971704</v>
+        <v>1.028784106175942</v>
       </c>
       <c r="D3">
-        <v>1.015383561979427</v>
+        <v>1.036119350626239</v>
       </c>
       <c r="E3">
-        <v>1.00113238735196</v>
+        <v>1.028668675328348</v>
       </c>
       <c r="F3">
-        <v>1.016710884491726</v>
+        <v>1.044977917598278</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040530806276414</v>
+        <v>1.031653437355852</v>
       </c>
       <c r="J3">
-        <v>1.014985922397577</v>
+        <v>1.033580128986484</v>
       </c>
       <c r="K3">
-        <v>1.025823319516867</v>
+        <v>1.038725691147029</v>
       </c>
       <c r="L3">
-        <v>1.011750799546397</v>
+        <v>1.031294986460946</v>
       </c>
       <c r="M3">
-        <v>1.027134319743256</v>
+        <v>1.047560914134618</v>
       </c>
       <c r="N3">
-        <v>1.008619562543979</v>
+        <v>1.015146306774611</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9978180223079227</v>
+        <v>1.029526246915702</v>
       </c>
       <c r="D4">
-        <v>1.017967459068184</v>
+        <v>1.036681712935732</v>
       </c>
       <c r="E4">
-        <v>1.003958696850847</v>
+        <v>1.029303023986771</v>
       </c>
       <c r="F4">
-        <v>1.019899651439354</v>
+        <v>1.045693995596265</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041315301302875</v>
+        <v>1.031775765471209</v>
       </c>
       <c r="J4">
-        <v>1.017277708466261</v>
+        <v>1.034088336042094</v>
       </c>
       <c r="K4">
-        <v>1.027853763270421</v>
+        <v>1.039163954873076</v>
       </c>
       <c r="L4">
-        <v>1.014009577545526</v>
+        <v>1.031804043465944</v>
       </c>
       <c r="M4">
-        <v>1.029763694200194</v>
+        <v>1.048153689856325</v>
       </c>
       <c r="N4">
-        <v>1.00940930723412</v>
+        <v>1.015318341724267</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9992611753587659</v>
+        <v>1.029838245247344</v>
       </c>
       <c r="D5">
-        <v>1.019040092318297</v>
+        <v>1.036918083358537</v>
       </c>
       <c r="E5">
-        <v>1.005132847187894</v>
+        <v>1.029569787296925</v>
       </c>
       <c r="F5">
-        <v>1.021224113943291</v>
+        <v>1.045995102660339</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041638005894577</v>
+        <v>1.031826839771107</v>
       </c>
       <c r="J5">
-        <v>1.018227940820881</v>
+        <v>1.034301866262728</v>
       </c>
       <c r="K5">
-        <v>1.028695046587877</v>
+        <v>1.039348002186363</v>
       </c>
       <c r="L5">
-        <v>1.014946659593613</v>
+        <v>1.032017988099047</v>
       </c>
       <c r="M5">
-        <v>1.03085460474105</v>
+        <v>1.048402819909064</v>
       </c>
       <c r="N5">
-        <v>1.009736576498075</v>
+        <v>1.015390587167158</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9995023902577271</v>
+        <v>1.029890631309066</v>
       </c>
       <c r="D6">
-        <v>1.01921940746612</v>
+        <v>1.036957768252117</v>
       </c>
       <c r="E6">
-        <v>1.005329186086653</v>
+        <v>1.029614582910114</v>
       </c>
       <c r="F6">
-        <v>1.021445572148368</v>
+        <v>1.046045663849327</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04169177877442</v>
+        <v>1.031835394700822</v>
       </c>
       <c r="J6">
-        <v>1.018386727585345</v>
+        <v>1.034337711896693</v>
       </c>
       <c r="K6">
-        <v>1.02883559231417</v>
+        <v>1.039378892886729</v>
       </c>
       <c r="L6">
-        <v>1.015103280317795</v>
+        <v>1.032053906660144</v>
       </c>
       <c r="M6">
-        <v>1.031036940415857</v>
+        <v>1.048444645674106</v>
       </c>
       <c r="N6">
-        <v>1.009791253441093</v>
+        <v>1.015402712918087</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9978373797918594</v>
+        <v>1.02953041584208</v>
       </c>
       <c r="D7">
-        <v>1.017981844544297</v>
+        <v>1.036684871512471</v>
       </c>
       <c r="E7">
-        <v>1.003974440273139</v>
+        <v>1.029306588164323</v>
       </c>
       <c r="F7">
-        <v>1.019917411347765</v>
+        <v>1.04569801873656</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041319640930363</v>
+        <v>1.031776449313471</v>
       </c>
       <c r="J7">
-        <v>1.017290456849478</v>
+        <v>1.034091189714602</v>
       </c>
       <c r="K7">
-        <v>1.027865052346975</v>
+        <v>1.039166414903193</v>
       </c>
       <c r="L7">
-        <v>1.014022147389015</v>
+        <v>1.031806902451622</v>
       </c>
       <c r="M7">
-        <v>1.029778327157418</v>
+        <v>1.048157019030343</v>
       </c>
       <c r="N7">
-        <v>1.009413698619611</v>
+        <v>1.015319307378092</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9907134524965892</v>
+        <v>1.028024791333814</v>
       </c>
       <c r="D8">
-        <v>1.012691872156231</v>
+        <v>1.035543811693491</v>
       </c>
       <c r="E8">
-        <v>0.9981911705756672</v>
+        <v>1.02801992557716</v>
       </c>
       <c r="F8">
-        <v>1.01339154984979</v>
+        <v>1.044245494282446</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039703406176914</v>
+        <v>1.031527076402764</v>
       </c>
       <c r="J8">
-        <v>1.012594510673649</v>
+        <v>1.033059747847973</v>
       </c>
       <c r="K8">
-        <v>1.023702625216525</v>
+        <v>1.038276604677311</v>
       </c>
       <c r="L8">
-        <v>1.009395699481927</v>
+        <v>1.03077393056953</v>
       </c>
       <c r="M8">
-        <v>1.024393128745474</v>
+        <v>1.046954167798936</v>
       </c>
       <c r="N8">
-        <v>1.007794890746768</v>
+        <v>1.014970023452184</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9774803981862255</v>
+        <v>1.02537168405284</v>
       </c>
       <c r="D9">
-        <v>1.002891076946074</v>
+        <v>1.033531630429703</v>
       </c>
       <c r="E9">
-        <v>0.9875038476627783</v>
+        <v>1.025755308641166</v>
       </c>
       <c r="F9">
-        <v>1.001322992004132</v>
+        <v>1.041688110721268</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036612440933722</v>
+        <v>1.031076381353122</v>
       </c>
       <c r="J9">
-        <v>1.003854235553321</v>
+        <v>1.031238352280681</v>
       </c>
       <c r="K9">
-        <v>1.015937421946399</v>
+        <v>1.036702281427355</v>
       </c>
       <c r="L9">
-        <v>1.000802972947713</v>
+        <v>1.028951672132878</v>
       </c>
       <c r="M9">
-        <v>1.014394640992186</v>
+        <v>1.044832244119104</v>
       </c>
       <c r="N9">
-        <v>1.004776621721708</v>
+        <v>1.014352043194359</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9681388481485215</v>
+        <v>1.023602874717165</v>
       </c>
       <c r="D10">
-        <v>0.9959960694779858</v>
+        <v>1.032189176832775</v>
       </c>
       <c r="E10">
-        <v>0.9800019150877383</v>
+        <v>1.024247330083994</v>
       </c>
       <c r="F10">
-        <v>0.9928453581941915</v>
+        <v>1.039984613065469</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034373951124422</v>
+        <v>1.030768346054885</v>
       </c>
       <c r="J10">
-        <v>0.9976761964511153</v>
+        <v>1.030021469276079</v>
       </c>
       <c r="K10">
-        <v>1.010437994405448</v>
+        <v>1.035648446512734</v>
       </c>
       <c r="L10">
-        <v>0.9947418789809489</v>
+        <v>1.027735451885539</v>
       </c>
       <c r="M10">
-        <v>1.007345004752773</v>
+        <v>1.043416035235867</v>
       </c>
       <c r="N10">
-        <v>1.002640176804745</v>
+        <v>1.013938375723403</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9639550783754393</v>
+        <v>1.022836927908751</v>
       </c>
       <c r="D11">
-        <v>0.9929151528038747</v>
+        <v>1.031607641809122</v>
       </c>
       <c r="E11">
-        <v>0.9766533496084804</v>
+        <v>1.023594773666733</v>
       </c>
       <c r="F11">
-        <v>0.9890598062769387</v>
+        <v>1.039247312040967</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033358878170516</v>
+        <v>1.030633167882632</v>
       </c>
       <c r="J11">
-        <v>0.994908240624533</v>
+        <v>1.02949391857699</v>
       </c>
       <c r="K11">
-        <v>1.007971927305642</v>
+        <v>1.035191105311086</v>
       </c>
       <c r="L11">
-        <v>0.992029401510877</v>
+        <v>1.027208483021264</v>
       </c>
       <c r="M11">
-        <v>1.004191030413552</v>
+        <v>1.04280241886905</v>
       </c>
       <c r="N11">
-        <v>1.00168241056998</v>
+        <v>1.013758853836217</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.962378717545866</v>
+        <v>1.022552413569436</v>
       </c>
       <c r="D12">
-        <v>0.9917555356343399</v>
+        <v>1.031391597010488</v>
       </c>
       <c r="E12">
-        <v>0.9753934864967772</v>
+        <v>1.02335244605182</v>
       </c>
       <c r="F12">
-        <v>0.987635309777566</v>
+        <v>1.038973493793444</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03297461663022</v>
+        <v>1.030582686709074</v>
       </c>
       <c r="J12">
-        <v>0.9938652593505928</v>
+        <v>1.029297867172678</v>
       </c>
       <c r="K12">
-        <v>1.007042409632975</v>
+        <v>1.035021074309534</v>
       </c>
       <c r="L12">
-        <v>0.9910077958726835</v>
+        <v>1.027012692143489</v>
       </c>
       <c r="M12">
-        <v>1.00300329455547</v>
+        <v>1.042574435558429</v>
       </c>
       <c r="N12">
-        <v>1.001321445218032</v>
+        <v>1.013692111047251</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9627178874620722</v>
+        <v>1.022613443228252</v>
       </c>
       <c r="D13">
-        <v>0.9920049819272805</v>
+        <v>1.03143794102123</v>
       </c>
       <c r="E13">
-        <v>0.9756644751399772</v>
+        <v>1.023404423399371</v>
       </c>
       <c r="F13">
-        <v>0.9879417200505362</v>
+        <v>1.03903222656641</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033057374439545</v>
+        <v>1.030593527309797</v>
       </c>
       <c r="J13">
-        <v>0.994089669103009</v>
+        <v>1.029339925199277</v>
       </c>
       <c r="K13">
-        <v>1.007242418880236</v>
+        <v>1.03505755351567</v>
       </c>
       <c r="L13">
-        <v>0.9912275849936762</v>
+        <v>1.027054692275006</v>
       </c>
       <c r="M13">
-        <v>1.003258817944076</v>
+        <v>1.042623341424406</v>
       </c>
       <c r="N13">
-        <v>1.001399114306146</v>
+        <v>1.013706430335391</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9638252402278799</v>
+        <v>1.022813410028103</v>
       </c>
       <c r="D14">
-        <v>0.9928196146359493</v>
+        <v>1.031589784230371</v>
       </c>
       <c r="E14">
-        <v>0.9765495426153887</v>
+        <v>1.02357474155084</v>
       </c>
       <c r="F14">
-        <v>0.9889424387485543</v>
+        <v>1.03922467715981</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03332726430514</v>
+        <v>1.030629000600762</v>
       </c>
       <c r="J14">
-        <v>0.9948223356322398</v>
+        <v>1.029477714860057</v>
       </c>
       <c r="K14">
-        <v>1.007895373410955</v>
+        <v>1.035177053641193</v>
       </c>
       <c r="L14">
-        <v>0.9919452475045283</v>
+        <v>1.027192299933017</v>
       </c>
       <c r="M14">
-        <v>1.004093188372889</v>
+        <v>1.04278357490127</v>
       </c>
       <c r="N14">
-        <v>1.001652681137936</v>
+        <v>1.013753338088508</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9645045127243704</v>
+        <v>1.022936615123179</v>
       </c>
       <c r="D15">
-        <v>0.9933194905394277</v>
+        <v>1.031683334961561</v>
       </c>
       <c r="E15">
-        <v>0.9770927026302135</v>
+        <v>1.023679688240914</v>
       </c>
       <c r="F15">
-        <v>0.9895565439108394</v>
+        <v>1.039343258688544</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033492585240717</v>
+        <v>1.030650821090179</v>
       </c>
       <c r="J15">
-        <v>0.995271761246698</v>
+        <v>1.029562598934156</v>
       </c>
       <c r="K15">
-        <v>1.008295865677656</v>
+        <v>1.035250661181265</v>
       </c>
       <c r="L15">
-        <v>0.9923855317876777</v>
+        <v>1.027277077756823</v>
       </c>
       <c r="M15">
-        <v>1.004605093186867</v>
+        <v>1.042882292219056</v>
       </c>
       <c r="N15">
-        <v>1.001808212459239</v>
+        <v>1.013782231501156</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9684134642675997</v>
+        <v>1.023653707100804</v>
       </c>
       <c r="D16">
-        <v>0.9961984557472878</v>
+        <v>1.032227766246403</v>
       </c>
       <c r="E16">
-        <v>0.9802219538012857</v>
+        <v>1.02429064666799</v>
       </c>
       <c r="F16">
-        <v>0.9930940811716338</v>
+        <v>1.040033552096017</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034440325162154</v>
+        <v>1.030777279525229</v>
       </c>
       <c r="J16">
-        <v>0.9978578663878828</v>
+        <v>1.030056467706181</v>
       </c>
       <c r="K16">
-        <v>1.010599808472409</v>
+        <v>1.035678777146652</v>
       </c>
       <c r="L16">
-        <v>0.994919972414642</v>
+        <v>1.02777041792272</v>
       </c>
       <c r="M16">
-        <v>1.007552105639367</v>
+        <v>1.043456750704478</v>
       </c>
       <c r="N16">
-        <v>1.00270302725164</v>
+        <v>1.013950281539719</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9708272866046449</v>
+        <v>1.024103508015962</v>
       </c>
       <c r="D17">
-        <v>0.9979782165260472</v>
+        <v>1.032569208223873</v>
       </c>
       <c r="E17">
-        <v>0.9821573463779607</v>
+        <v>1.0246739937374</v>
       </c>
       <c r="F17">
-        <v>0.9952816042004572</v>
+        <v>1.040466641421445</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035022327688273</v>
+        <v>1.030856122474378</v>
       </c>
       <c r="J17">
-        <v>0.999454603752451</v>
+        <v>1.030366088834505</v>
       </c>
       <c r="K17">
-        <v>1.012021788037964</v>
+        <v>1.035947048680067</v>
       </c>
       <c r="L17">
-        <v>0.996485625782716</v>
+        <v>1.028079786488364</v>
       </c>
       <c r="M17">
-        <v>1.009372872885216</v>
+        <v>1.043816988956656</v>
       </c>
       <c r="N17">
-        <v>1.003255370338404</v>
+        <v>1.014055587421943</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9722219403902328</v>
+        <v>1.024365865452501</v>
       </c>
       <c r="D18">
-        <v>0.9990071877443449</v>
+        <v>1.032768342045564</v>
       </c>
       <c r="E18">
-        <v>0.9832766347160008</v>
+        <v>1.024897633017144</v>
       </c>
       <c r="F18">
-        <v>0.9965465667433079</v>
+        <v>1.040719286467161</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035357406024311</v>
+        <v>1.030901936863869</v>
       </c>
       <c r="J18">
-        <v>1.000377061847648</v>
+        <v>1.030546624629175</v>
       </c>
       <c r="K18">
-        <v>1.012843080454826</v>
+        <v>1.036103428172749</v>
       </c>
       <c r="L18">
-        <v>0.9973904171319674</v>
+        <v>1.028260203409625</v>
       </c>
       <c r="M18">
-        <v>1.010425178396571</v>
+        <v>1.044027072375667</v>
       </c>
       <c r="N18">
-        <v>1.003574411993831</v>
+        <v>1.014116971863746</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9726952698196653</v>
+        <v>1.024455321954194</v>
       </c>
       <c r="D19">
-        <v>0.9993565174181781</v>
+        <v>1.032836237550787</v>
       </c>
       <c r="E19">
-        <v>0.9836566850427161</v>
+        <v>1.024973894931855</v>
       </c>
       <c r="F19">
-        <v>0.9969760565917644</v>
+        <v>1.040805437237889</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035470923599181</v>
+        <v>1.030917528981108</v>
       </c>
       <c r="J19">
-        <v>1.000690113875596</v>
+        <v>1.030608172345715</v>
       </c>
       <c r="K19">
-        <v>1.013121764336955</v>
+        <v>1.03615673279763</v>
       </c>
       <c r="L19">
-        <v>0.9976975227744326</v>
+        <v>1.028321715414385</v>
       </c>
       <c r="M19">
-        <v>1.010782367264975</v>
+        <v>1.044098699053784</v>
       </c>
       <c r="N19">
-        <v>1.003682674606846</v>
+        <v>1.014137895811303</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9705696909225887</v>
+        <v>1.024055249040953</v>
       </c>
       <c r="D20">
-        <v>0.9977882160114288</v>
+        <v>1.032532577163642</v>
       </c>
       <c r="E20">
-        <v>0.9819506963535422</v>
+        <v>1.024632860150467</v>
       </c>
       <c r="F20">
-        <v>0.9950480476224431</v>
+        <v>1.04042017179502</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03496034115828</v>
+        <v>1.030847681304571</v>
       </c>
       <c r="J20">
-        <v>0.9992842148703301</v>
+        <v>1.030332875728269</v>
       </c>
       <c r="K20">
-        <v>1.01187006878771</v>
+        <v>1.035918275900141</v>
       </c>
       <c r="L20">
-        <v>0.9963185236377434</v>
+        <v>1.028046597537037</v>
       </c>
       <c r="M20">
-        <v>1.009178533629544</v>
+        <v>1.043778342679386</v>
       </c>
       <c r="N20">
-        <v>1.003196435060417</v>
+        <v>1.014044293100737</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9634997811032791</v>
+        <v>1.022754525010997</v>
       </c>
       <c r="D21">
-        <v>0.9925801536253184</v>
+        <v>1.031545071207108</v>
       </c>
       <c r="E21">
-        <v>0.9762893640737544</v>
+        <v>1.023524585422897</v>
       </c>
       <c r="F21">
-        <v>0.9886482689407218</v>
+        <v>1.039168003931558</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033247990594282</v>
+        <v>1.030618562053732</v>
       </c>
       <c r="J21">
-        <v>0.9946070008123636</v>
+        <v>1.02943714188261</v>
       </c>
       <c r="K21">
-        <v>1.007703474088773</v>
+        <v>1.035141868089567</v>
       </c>
       <c r="L21">
-        <v>0.9917343094271445</v>
+        <v>1.027151779324125</v>
       </c>
       <c r="M21">
-        <v>1.003847942752</v>
+        <v>1.042736391765126</v>
       </c>
       <c r="N21">
-        <v>1.001578158343153</v>
+        <v>1.013739526591588</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9589246695561765</v>
+        <v>1.021936663537913</v>
       </c>
       <c r="D22">
-        <v>0.989217028811203</v>
+        <v>1.030923974026713</v>
       </c>
       <c r="E22">
-        <v>0.9726363953063781</v>
+        <v>1.022828121205451</v>
       </c>
       <c r="F22">
-        <v>0.9845175258112173</v>
+        <v>1.038380994760536</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032129415164179</v>
+        <v>1.030472943644543</v>
       </c>
       <c r="J22">
-        <v>0.9915798929485441</v>
+        <v>1.028873405143244</v>
       </c>
       <c r="K22">
-        <v>1.005005168301271</v>
+        <v>1.03465281785889</v>
       </c>
       <c r="L22">
-        <v>0.988770144166926</v>
+        <v>1.026588875259131</v>
       </c>
       <c r="M22">
-        <v>1.000402062018578</v>
+        <v>1.042080935017846</v>
       </c>
       <c r="N22">
-        <v>1.000530381209515</v>
+        <v>1.013547558476881</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9613628691148003</v>
+        <v>1.022370232104972</v>
       </c>
       <c r="D23">
-        <v>0.991008607323003</v>
+        <v>1.031253249642531</v>
       </c>
       <c r="E23">
-        <v>0.9745821221559531</v>
+        <v>1.023197296838555</v>
       </c>
       <c r="F23">
-        <v>0.9867178573800005</v>
+        <v>1.038798177019147</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032726490828717</v>
+        <v>1.030550286790301</v>
       </c>
       <c r="J23">
-        <v>0.9931931255411135</v>
+        <v>1.02917230529928</v>
       </c>
       <c r="K23">
-        <v>1.006443318437993</v>
+        <v>1.034912157278936</v>
       </c>
       <c r="L23">
-        <v>0.9903495710949892</v>
+        <v>1.026887309603895</v>
       </c>
       <c r="M23">
-        <v>1.002238076331452</v>
+        <v>1.042428437514916</v>
       </c>
       <c r="N23">
-        <v>1.001088807266447</v>
+        <v>1.013649357551258</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9706861282787079</v>
+        <v>1.024077055205866</v>
       </c>
       <c r="D24">
-        <v>0.9978740972231781</v>
+        <v>1.032549129235453</v>
       </c>
       <c r="E24">
-        <v>0.9820441021770209</v>
+        <v>1.024651446525807</v>
       </c>
       <c r="F24">
-        <v>0.9951536156422187</v>
+        <v>1.040441169321743</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034988363756447</v>
+        <v>1.030851496041473</v>
       </c>
       <c r="J24">
-        <v>0.9993612336843551</v>
+        <v>1.030347883489485</v>
       </c>
       <c r="K24">
-        <v>1.01193864923551</v>
+        <v>1.035931277385825</v>
       </c>
       <c r="L24">
-        <v>0.9963940558858541</v>
+        <v>1.028061594295834</v>
       </c>
       <c r="M24">
-        <v>1.009266377131726</v>
+        <v>1.043795805384076</v>
       </c>
       <c r="N24">
-        <v>1.003223075028505</v>
+        <v>1.014049396637835</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9809881354506491</v>
+        <v>1.026057583428999</v>
       </c>
       <c r="D25">
-        <v>1.005485428816431</v>
+        <v>1.034052003736867</v>
       </c>
       <c r="E25">
-        <v>0.9903298554108966</v>
+        <v>1.026340454114777</v>
       </c>
       <c r="F25">
-        <v>1.004515286670311</v>
+        <v>1.042349003016116</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037441742249092</v>
+        <v>1.031194231729649</v>
       </c>
       <c r="J25">
-        <v>1.006172712952771</v>
+        <v>1.031709686750222</v>
       </c>
       <c r="K25">
-        <v>1.017999183223897</v>
+        <v>1.037110036628013</v>
       </c>
       <c r="L25">
-        <v>1.003080166000722</v>
+        <v>1.029423011867182</v>
       </c>
       <c r="M25">
-        <v>1.017043910687644</v>
+        <v>1.045381091887723</v>
       </c>
       <c r="N25">
-        <v>1.005577814926978</v>
+        <v>1.014512102007575</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_111/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_111/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027637184202276</v>
+        <v>0.9888354528144412</v>
       </c>
       <c r="D2">
-        <v>1.035249955163783</v>
+        <v>1.01129882622712</v>
       </c>
       <c r="E2">
-        <v>1.027688866148185</v>
+        <v>0.9966701035167084</v>
       </c>
       <c r="F2">
-        <v>1.043871701773545</v>
+        <v>1.011674581188816</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031462112632618</v>
+        <v>1.039271326183161</v>
       </c>
       <c r="J2">
-        <v>1.032793951103716</v>
+        <v>1.011355299731059</v>
       </c>
       <c r="K2">
-        <v>1.038047099433764</v>
+        <v>1.022602963121858</v>
       </c>
       <c r="L2">
-        <v>1.03050786416438</v>
+        <v>1.008176024854751</v>
       </c>
       <c r="M2">
-        <v>1.046644346015466</v>
+        <v>1.022973631724686</v>
       </c>
       <c r="N2">
-        <v>1.014879934026104</v>
+        <v>1.007367333895267</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028784106175942</v>
+        <v>0.9943397549717023</v>
       </c>
       <c r="D3">
-        <v>1.036119350626239</v>
+        <v>1.015383561979426</v>
       </c>
       <c r="E3">
-        <v>1.028668675328348</v>
+        <v>1.001132387351958</v>
       </c>
       <c r="F3">
-        <v>1.044977917598278</v>
+        <v>1.016710884491723</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031653437355852</v>
+        <v>1.040530806276413</v>
       </c>
       <c r="J3">
-        <v>1.033580128986484</v>
+        <v>1.014985922397576</v>
       </c>
       <c r="K3">
-        <v>1.038725691147029</v>
+        <v>1.025823319516865</v>
       </c>
       <c r="L3">
-        <v>1.031294986460946</v>
+        <v>1.011750799546395</v>
       </c>
       <c r="M3">
-        <v>1.047560914134618</v>
+        <v>1.027134319743253</v>
       </c>
       <c r="N3">
-        <v>1.015146306774611</v>
+        <v>1.008619562543979</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029526246915702</v>
+        <v>0.9978180223079224</v>
       </c>
       <c r="D4">
-        <v>1.036681712935732</v>
+        <v>1.017967459068184</v>
       </c>
       <c r="E4">
-        <v>1.029303023986771</v>
+        <v>1.003958696850847</v>
       </c>
       <c r="F4">
-        <v>1.045693995596265</v>
+        <v>1.019899651439354</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031775765471209</v>
+        <v>1.041315301302875</v>
       </c>
       <c r="J4">
-        <v>1.034088336042094</v>
+        <v>1.01727770846626</v>
       </c>
       <c r="K4">
-        <v>1.039163954873076</v>
+        <v>1.027853763270421</v>
       </c>
       <c r="L4">
-        <v>1.031804043465944</v>
+        <v>1.014009577545526</v>
       </c>
       <c r="M4">
-        <v>1.048153689856325</v>
+        <v>1.029763694200194</v>
       </c>
       <c r="N4">
-        <v>1.015318341724267</v>
+        <v>1.00940930723412</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029838245247344</v>
+        <v>0.9992611753587661</v>
       </c>
       <c r="D5">
-        <v>1.036918083358537</v>
+        <v>1.019040092318297</v>
       </c>
       <c r="E5">
-        <v>1.029569787296925</v>
+        <v>1.005132847187894</v>
       </c>
       <c r="F5">
-        <v>1.045995102660339</v>
+        <v>1.021224113943292</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031826839771107</v>
+        <v>1.041638005894578</v>
       </c>
       <c r="J5">
-        <v>1.034301866262728</v>
+        <v>1.018227940820881</v>
       </c>
       <c r="K5">
-        <v>1.039348002186363</v>
+        <v>1.028695046587877</v>
       </c>
       <c r="L5">
-        <v>1.032017988099047</v>
+        <v>1.014946659593613</v>
       </c>
       <c r="M5">
-        <v>1.048402819909064</v>
+        <v>1.030854604741051</v>
       </c>
       <c r="N5">
-        <v>1.015390587167158</v>
+        <v>1.009736576498075</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029890631309066</v>
+        <v>0.9995023902577262</v>
       </c>
       <c r="D6">
-        <v>1.036957768252117</v>
+        <v>1.01921940746612</v>
       </c>
       <c r="E6">
-        <v>1.029614582910114</v>
+        <v>1.005329186086652</v>
       </c>
       <c r="F6">
-        <v>1.046045663849327</v>
+        <v>1.021445572148368</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031835394700822</v>
+        <v>1.04169177877442</v>
       </c>
       <c r="J6">
-        <v>1.034337711896693</v>
+        <v>1.018386727585344</v>
       </c>
       <c r="K6">
-        <v>1.039378892886729</v>
+        <v>1.02883559231417</v>
       </c>
       <c r="L6">
-        <v>1.032053906660144</v>
+        <v>1.015103280317794</v>
       </c>
       <c r="M6">
-        <v>1.048444645674106</v>
+        <v>1.031036940415856</v>
       </c>
       <c r="N6">
-        <v>1.015402712918087</v>
+        <v>1.009791253441093</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02953041584208</v>
+        <v>0.9978373797918595</v>
       </c>
       <c r="D7">
-        <v>1.036684871512471</v>
+        <v>1.017981844544297</v>
       </c>
       <c r="E7">
-        <v>1.029306588164323</v>
+        <v>1.003974440273139</v>
       </c>
       <c r="F7">
-        <v>1.04569801873656</v>
+        <v>1.019917411347765</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031776449313471</v>
+        <v>1.041319640930363</v>
       </c>
       <c r="J7">
-        <v>1.034091189714602</v>
+        <v>1.017290456849478</v>
       </c>
       <c r="K7">
-        <v>1.039166414903193</v>
+        <v>1.027865052346974</v>
       </c>
       <c r="L7">
-        <v>1.031806902451622</v>
+        <v>1.014022147389015</v>
       </c>
       <c r="M7">
-        <v>1.048157019030343</v>
+        <v>1.029778327157418</v>
       </c>
       <c r="N7">
-        <v>1.015319307378092</v>
+        <v>1.009413698619611</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028024791333814</v>
+        <v>0.9907134524965897</v>
       </c>
       <c r="D8">
-        <v>1.035543811693491</v>
+        <v>1.012691872156232</v>
       </c>
       <c r="E8">
-        <v>1.02801992557716</v>
+        <v>0.9981911705756675</v>
       </c>
       <c r="F8">
-        <v>1.044245494282446</v>
+        <v>1.01339154984979</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031527076402764</v>
+        <v>1.039703406176914</v>
       </c>
       <c r="J8">
-        <v>1.033059747847973</v>
+        <v>1.012594510673649</v>
       </c>
       <c r="K8">
-        <v>1.038276604677311</v>
+        <v>1.023702625216526</v>
       </c>
       <c r="L8">
-        <v>1.03077393056953</v>
+        <v>1.009395699481927</v>
       </c>
       <c r="M8">
-        <v>1.046954167798936</v>
+        <v>1.024393128745474</v>
       </c>
       <c r="N8">
-        <v>1.014970023452184</v>
+        <v>1.007794890746768</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02537168405284</v>
+        <v>0.9774803981862259</v>
       </c>
       <c r="D9">
-        <v>1.033531630429703</v>
+        <v>1.002891076946075</v>
       </c>
       <c r="E9">
-        <v>1.025755308641166</v>
+        <v>0.9875038476627787</v>
       </c>
       <c r="F9">
-        <v>1.041688110721268</v>
+        <v>1.001322992004133</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031076381353122</v>
+        <v>1.036612440933723</v>
       </c>
       <c r="J9">
-        <v>1.031238352280681</v>
+        <v>1.003854235553321</v>
       </c>
       <c r="K9">
-        <v>1.036702281427355</v>
+        <v>1.0159374219464</v>
       </c>
       <c r="L9">
-        <v>1.028951672132878</v>
+        <v>1.000802972947713</v>
       </c>
       <c r="M9">
-        <v>1.044832244119104</v>
+        <v>1.014394640992187</v>
       </c>
       <c r="N9">
-        <v>1.014352043194359</v>
+        <v>1.004776621721708</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023602874717165</v>
+        <v>0.9681388481485216</v>
       </c>
       <c r="D10">
-        <v>1.032189176832775</v>
+        <v>0.9959960694779862</v>
       </c>
       <c r="E10">
-        <v>1.024247330083994</v>
+        <v>0.9800019150877385</v>
       </c>
       <c r="F10">
-        <v>1.039984613065469</v>
+        <v>0.992845358194192</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030768346054885</v>
+        <v>1.034373951124422</v>
       </c>
       <c r="J10">
-        <v>1.030021469276079</v>
+        <v>0.9976761964511155</v>
       </c>
       <c r="K10">
-        <v>1.035648446512734</v>
+        <v>1.010437994405449</v>
       </c>
       <c r="L10">
-        <v>1.027735451885539</v>
+        <v>0.994741878980949</v>
       </c>
       <c r="M10">
-        <v>1.043416035235867</v>
+        <v>1.007345004752774</v>
       </c>
       <c r="N10">
-        <v>1.013938375723403</v>
+        <v>1.002640176804745</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022836927908751</v>
+        <v>0.9639550783754379</v>
       </c>
       <c r="D11">
-        <v>1.031607641809122</v>
+        <v>0.9929151528038738</v>
       </c>
       <c r="E11">
-        <v>1.023594773666733</v>
+        <v>0.976653349608479</v>
       </c>
       <c r="F11">
-        <v>1.039247312040967</v>
+        <v>0.9890598062769381</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030633167882632</v>
+        <v>1.033358878170516</v>
       </c>
       <c r="J11">
-        <v>1.02949391857699</v>
+        <v>0.9949082406245318</v>
       </c>
       <c r="K11">
-        <v>1.035191105311086</v>
+        <v>1.007971927305641</v>
       </c>
       <c r="L11">
-        <v>1.027208483021264</v>
+        <v>0.9920294015108759</v>
       </c>
       <c r="M11">
-        <v>1.04280241886905</v>
+        <v>1.004191030413551</v>
       </c>
       <c r="N11">
-        <v>1.013758853836217</v>
+        <v>1.00168241056998</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022552413569436</v>
+        <v>0.962378717545865</v>
       </c>
       <c r="D12">
-        <v>1.031391597010488</v>
+        <v>0.9917555356343392</v>
       </c>
       <c r="E12">
-        <v>1.02335244605182</v>
+        <v>0.9753934864967758</v>
       </c>
       <c r="F12">
-        <v>1.038973493793444</v>
+        <v>0.9876353097775651</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030582686709074</v>
+        <v>1.03297461663022</v>
       </c>
       <c r="J12">
-        <v>1.029297867172678</v>
+        <v>0.9938652593505917</v>
       </c>
       <c r="K12">
-        <v>1.035021074309534</v>
+        <v>1.007042409632974</v>
       </c>
       <c r="L12">
-        <v>1.027012692143489</v>
+        <v>0.9910077958726822</v>
       </c>
       <c r="M12">
-        <v>1.042574435558429</v>
+        <v>1.003003294555469</v>
       </c>
       <c r="N12">
-        <v>1.013692111047251</v>
+        <v>1.001321445218032</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022613443228252</v>
+        <v>0.9627178874620718</v>
       </c>
       <c r="D13">
-        <v>1.03143794102123</v>
+        <v>0.9920049819272799</v>
       </c>
       <c r="E13">
-        <v>1.023404423399371</v>
+        <v>0.9756644751399767</v>
       </c>
       <c r="F13">
-        <v>1.03903222656641</v>
+        <v>0.9879417200505356</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030593527309797</v>
+        <v>1.033057374439544</v>
       </c>
       <c r="J13">
-        <v>1.029339925199277</v>
+        <v>0.9940896691030087</v>
       </c>
       <c r="K13">
-        <v>1.03505755351567</v>
+        <v>1.007242418880236</v>
       </c>
       <c r="L13">
-        <v>1.027054692275006</v>
+        <v>0.9912275849936759</v>
       </c>
       <c r="M13">
-        <v>1.042623341424406</v>
+        <v>1.003258817944076</v>
       </c>
       <c r="N13">
-        <v>1.013706430335391</v>
+        <v>1.001399114306146</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022813410028103</v>
+        <v>0.9638252402278797</v>
       </c>
       <c r="D14">
-        <v>1.031589784230371</v>
+        <v>0.9928196146359491</v>
       </c>
       <c r="E14">
-        <v>1.02357474155084</v>
+        <v>0.9765495426153886</v>
       </c>
       <c r="F14">
-        <v>1.03922467715981</v>
+        <v>0.9889424387485545</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030629000600762</v>
+        <v>1.03332726430514</v>
       </c>
       <c r="J14">
-        <v>1.029477714860057</v>
+        <v>0.9948223356322398</v>
       </c>
       <c r="K14">
-        <v>1.035177053641193</v>
+        <v>1.007895373410955</v>
       </c>
       <c r="L14">
-        <v>1.027192299933017</v>
+        <v>0.9919452475045283</v>
       </c>
       <c r="M14">
-        <v>1.04278357490127</v>
+        <v>1.004093188372889</v>
       </c>
       <c r="N14">
-        <v>1.013753338088508</v>
+        <v>1.001652681137936</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022936615123179</v>
+        <v>0.9645045127243701</v>
       </c>
       <c r="D15">
-        <v>1.031683334961561</v>
+        <v>0.9933194905394276</v>
       </c>
       <c r="E15">
-        <v>1.023679688240914</v>
+        <v>0.9770927026302131</v>
       </c>
       <c r="F15">
-        <v>1.039343258688544</v>
+        <v>0.9895565439108392</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030650821090179</v>
+        <v>1.033492585240717</v>
       </c>
       <c r="J15">
-        <v>1.029562598934156</v>
+        <v>0.9952717612466978</v>
       </c>
       <c r="K15">
-        <v>1.035250661181265</v>
+        <v>1.008295865677656</v>
       </c>
       <c r="L15">
-        <v>1.027277077756823</v>
+        <v>0.9923855317876774</v>
       </c>
       <c r="M15">
-        <v>1.042882292219056</v>
+        <v>1.004605093186867</v>
       </c>
       <c r="N15">
-        <v>1.013782231501156</v>
+        <v>1.00180821245924</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023653707100804</v>
+        <v>0.9684134642675984</v>
       </c>
       <c r="D16">
-        <v>1.032227766246403</v>
+        <v>0.9961984557472864</v>
       </c>
       <c r="E16">
-        <v>1.02429064666799</v>
+        <v>0.9802219538012846</v>
       </c>
       <c r="F16">
-        <v>1.040033552096017</v>
+        <v>0.9930940811716329</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030777279525229</v>
+        <v>1.034440325162153</v>
       </c>
       <c r="J16">
-        <v>1.030056467706181</v>
+        <v>0.9978578663878814</v>
       </c>
       <c r="K16">
-        <v>1.035678777146652</v>
+        <v>1.010599808472408</v>
       </c>
       <c r="L16">
-        <v>1.02777041792272</v>
+        <v>0.9949199724146408</v>
       </c>
       <c r="M16">
-        <v>1.043456750704478</v>
+        <v>1.007552105639366</v>
       </c>
       <c r="N16">
-        <v>1.013950281539719</v>
+        <v>1.00270302725164</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024103508015962</v>
+        <v>0.9708272866046441</v>
       </c>
       <c r="D17">
-        <v>1.032569208223873</v>
+        <v>0.9979782165260463</v>
       </c>
       <c r="E17">
-        <v>1.0246739937374</v>
+        <v>0.9821573463779599</v>
       </c>
       <c r="F17">
-        <v>1.040466641421445</v>
+        <v>0.9952816042004564</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030856122474378</v>
+        <v>1.035022327688273</v>
       </c>
       <c r="J17">
-        <v>1.030366088834505</v>
+        <v>0.9994546037524503</v>
       </c>
       <c r="K17">
-        <v>1.035947048680067</v>
+        <v>1.012021788037964</v>
       </c>
       <c r="L17">
-        <v>1.028079786488364</v>
+        <v>0.9964856257827154</v>
       </c>
       <c r="M17">
-        <v>1.043816988956656</v>
+        <v>1.009372872885215</v>
       </c>
       <c r="N17">
-        <v>1.014055587421943</v>
+        <v>1.003255370338403</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024365865452501</v>
+        <v>0.9722219403902321</v>
       </c>
       <c r="D18">
-        <v>1.032768342045564</v>
+        <v>0.9990071877443445</v>
       </c>
       <c r="E18">
-        <v>1.024897633017144</v>
+        <v>0.9832766347160005</v>
       </c>
       <c r="F18">
-        <v>1.040719286467161</v>
+        <v>0.9965465667433074</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030901936863869</v>
+        <v>1.035357406024311</v>
       </c>
       <c r="J18">
-        <v>1.030546624629175</v>
+        <v>1.000377061847648</v>
       </c>
       <c r="K18">
-        <v>1.036103428172749</v>
+        <v>1.012843080454826</v>
       </c>
       <c r="L18">
-        <v>1.028260203409625</v>
+        <v>0.997390417131967</v>
       </c>
       <c r="M18">
-        <v>1.044027072375667</v>
+        <v>1.010425178396571</v>
       </c>
       <c r="N18">
-        <v>1.014116971863746</v>
+        <v>1.003574411993831</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024455321954194</v>
+        <v>0.9726952698196651</v>
       </c>
       <c r="D19">
-        <v>1.032836237550787</v>
+        <v>0.9993565174181778</v>
       </c>
       <c r="E19">
-        <v>1.024973894931855</v>
+        <v>0.9836566850427156</v>
       </c>
       <c r="F19">
-        <v>1.040805437237889</v>
+        <v>0.9969760565917638</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030917528981108</v>
+        <v>1.035470923599181</v>
       </c>
       <c r="J19">
-        <v>1.030608172345715</v>
+        <v>1.000690113875596</v>
       </c>
       <c r="K19">
-        <v>1.03615673279763</v>
+        <v>1.013121764336954</v>
       </c>
       <c r="L19">
-        <v>1.028321715414385</v>
+        <v>0.9976975227744322</v>
       </c>
       <c r="M19">
-        <v>1.044098699053784</v>
+        <v>1.010782367264974</v>
       </c>
       <c r="N19">
-        <v>1.014137895811303</v>
+        <v>1.003682674606846</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024055249040953</v>
+        <v>0.9705696909225876</v>
       </c>
       <c r="D20">
-        <v>1.032532577163642</v>
+        <v>0.997788216011428</v>
       </c>
       <c r="E20">
-        <v>1.024632860150467</v>
+        <v>0.9819506963535413</v>
       </c>
       <c r="F20">
-        <v>1.04042017179502</v>
+        <v>0.9950480476224424</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030847681304571</v>
+        <v>1.03496034115828</v>
       </c>
       <c r="J20">
-        <v>1.030332875728269</v>
+        <v>0.9992842148703293</v>
       </c>
       <c r="K20">
-        <v>1.035918275900141</v>
+        <v>1.011870068787709</v>
       </c>
       <c r="L20">
-        <v>1.028046597537037</v>
+        <v>0.9963185236377425</v>
       </c>
       <c r="M20">
-        <v>1.043778342679386</v>
+        <v>1.009178533629543</v>
       </c>
       <c r="N20">
-        <v>1.014044293100737</v>
+        <v>1.003196435060416</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022754525010997</v>
+        <v>0.9634997811032789</v>
       </c>
       <c r="D21">
-        <v>1.031545071207108</v>
+        <v>0.9925801536253182</v>
       </c>
       <c r="E21">
-        <v>1.023524585422897</v>
+        <v>0.9762893640737538</v>
       </c>
       <c r="F21">
-        <v>1.039168003931558</v>
+        <v>0.9886482689407214</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030618562053732</v>
+        <v>1.033247990594282</v>
       </c>
       <c r="J21">
-        <v>1.02943714188261</v>
+        <v>0.9946070008123632</v>
       </c>
       <c r="K21">
-        <v>1.035141868089567</v>
+        <v>1.007703474088773</v>
       </c>
       <c r="L21">
-        <v>1.027151779324125</v>
+        <v>0.9917343094271441</v>
       </c>
       <c r="M21">
-        <v>1.042736391765126</v>
+        <v>1.003847942752</v>
       </c>
       <c r="N21">
-        <v>1.013739526591588</v>
+        <v>1.001578158343153</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021936663537913</v>
+        <v>0.9589246695561772</v>
       </c>
       <c r="D22">
-        <v>1.030923974026713</v>
+        <v>0.9892170288112035</v>
       </c>
       <c r="E22">
-        <v>1.022828121205451</v>
+        <v>0.9726363953063785</v>
       </c>
       <c r="F22">
-        <v>1.038380994760536</v>
+        <v>0.9845175258112179</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030472943644543</v>
+        <v>1.03212941516418</v>
       </c>
       <c r="J22">
-        <v>1.028873405143244</v>
+        <v>0.9915798929485445</v>
       </c>
       <c r="K22">
-        <v>1.03465281785889</v>
+        <v>1.005005168301272</v>
       </c>
       <c r="L22">
-        <v>1.026588875259131</v>
+        <v>0.9887701441669264</v>
       </c>
       <c r="M22">
-        <v>1.042080935017846</v>
+        <v>1.000402062018579</v>
       </c>
       <c r="N22">
-        <v>1.013547558476881</v>
+        <v>1.000530381209515</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022370232104972</v>
+        <v>0.9613628691147993</v>
       </c>
       <c r="D23">
-        <v>1.031253249642531</v>
+        <v>0.9910086073230023</v>
       </c>
       <c r="E23">
-        <v>1.023197296838555</v>
+        <v>0.9745821221559523</v>
       </c>
       <c r="F23">
-        <v>1.038798177019147</v>
+        <v>0.9867178573799996</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030550286790301</v>
+        <v>1.032726490828717</v>
       </c>
       <c r="J23">
-        <v>1.02917230529928</v>
+        <v>0.9931931255411129</v>
       </c>
       <c r="K23">
-        <v>1.034912157278936</v>
+        <v>1.006443318437992</v>
       </c>
       <c r="L23">
-        <v>1.026887309603895</v>
+        <v>0.9903495710949884</v>
       </c>
       <c r="M23">
-        <v>1.042428437514916</v>
+        <v>1.002238076331452</v>
       </c>
       <c r="N23">
-        <v>1.013649357551258</v>
+        <v>1.001088807266447</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024077055205866</v>
+        <v>0.9706861282787068</v>
       </c>
       <c r="D24">
-        <v>1.032549129235453</v>
+        <v>0.9978740972231774</v>
       </c>
       <c r="E24">
-        <v>1.024651446525807</v>
+        <v>0.9820441021770197</v>
       </c>
       <c r="F24">
-        <v>1.040441169321743</v>
+        <v>0.9951536156422179</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030851496041473</v>
+        <v>1.034988363756446</v>
       </c>
       <c r="J24">
-        <v>1.030347883489485</v>
+        <v>0.999361233684354</v>
       </c>
       <c r="K24">
-        <v>1.035931277385825</v>
+        <v>1.011938649235509</v>
       </c>
       <c r="L24">
-        <v>1.028061594295834</v>
+        <v>0.9963940558858528</v>
       </c>
       <c r="M24">
-        <v>1.043795805384076</v>
+        <v>1.009266377131725</v>
       </c>
       <c r="N24">
-        <v>1.014049396637835</v>
+        <v>1.003223075028504</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026057583428999</v>
+        <v>0.9809881354506488</v>
       </c>
       <c r="D25">
-        <v>1.034052003736867</v>
+        <v>1.00548542881643</v>
       </c>
       <c r="E25">
-        <v>1.026340454114777</v>
+        <v>0.9903298554108965</v>
       </c>
       <c r="F25">
-        <v>1.042349003016116</v>
+        <v>1.004515286670311</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031194231729649</v>
+        <v>1.037441742249093</v>
       </c>
       <c r="J25">
-        <v>1.031709686750222</v>
+        <v>1.006172712952771</v>
       </c>
       <c r="K25">
-        <v>1.037110036628013</v>
+        <v>1.017999183223897</v>
       </c>
       <c r="L25">
-        <v>1.029423011867182</v>
+        <v>1.003080166000722</v>
       </c>
       <c r="M25">
-        <v>1.045381091887723</v>
+        <v>1.017043910687643</v>
       </c>
       <c r="N25">
-        <v>1.014512102007575</v>
+        <v>1.005577814926978</v>
       </c>
     </row>
   </sheetData>
